--- a/tika-similarity/result-doc/ClusterCompare.xlsx
+++ b/tika-similarity/result-doc/ClusterCompare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cs599\a1-screenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\data-analysis-test\tika-similarity\result-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
   <si>
     <t>Cluster</t>
   </si>
@@ -90,6 +90,45 @@
   </si>
   <si>
     <t>Larger Dataset ("/info")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application/xhtml+xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text/html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">application/pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text/plain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">application/rss+xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image/gif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">application/xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">application/rdf+xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">video/mp4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image/vnd.microsoft.icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">application/rtf </t>
+  </si>
+  <si>
+    <t>Tika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image/jpeg </t>
   </si>
 </sst>
 </file>
@@ -121,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -153,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,10 +207,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,36 +510,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -660,20 +708,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -843,13 +891,13 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
@@ -882,13 +930,13 @@
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1025,13 +1073,13 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1064,13 +1112,13 @@
       <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1223,18 +1271,142 @@
         <v>67.669172932330824</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
